--- a/data/Daily Weather Formatted.xlsx
+++ b/data/Daily Weather Formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suzan\Desktop\NSS\Projects\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D9E7F7-8014-4E09-B197-FAACA1C2C113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7D5E5-A320-4DA6-9FAE-15EBCEA4E67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23610" yWindow="360" windowWidth="22935" windowHeight="12150" xr2:uid="{2125E208-09D0-4F73-988A-FD2B06D17270}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2125E208-09D0-4F73-988A-FD2B06D17270}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Weather Formatted" sheetId="1" r:id="rId1"/>
@@ -3864,7 +3864,7 @@
   <dimension ref="A1:AA366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34117,7 +34117,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA366" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>